--- a/Elly_events.xlsx
+++ b/Elly_events.xlsx
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">overhead somewhere a sound passed dying away the snore of an engine the long hissing of tires in gravel then the wind sighed in the trees again shivering the crests against the sky against the bole of one of them the car lay in an inextricable and indistinguishable mass and elly sat in a litter of broken glass staring dully at it something happened she whimpered he hit me and now they are dead its me thats hurt and nobody will come she moaned a little whimpering then with an air of dazed astonishment she raised her hand the palm was red and wet she sat whimpering quietly digging stupidly at her palm theres glass all in it and i cant even see it she said whimpered gazing at her palm while the warm blood stained slowly down upon her skirt again the sound rushed steadily past high overhead and died away she looked up following it there goes another one she whimpered they wont even stop to see if i am hurt  </t>
   </si>
   <si>
-    <t>BORDERING THE SHEER DROP of the precipice, the wooden railing looked like a child's toy. It followed the curving road in thread-like embrace, passing the car in a flimsy blur. Then it flicked behind and away like a taut ribbon cut with scissors. Then they passed the sign, the first sign, Mills City 6 mi and Elly thought, with musing and irrevocable astonishment, 'Now we are almost there. It is too late now'; looking at Paul beside her, his hands on the wheel, his face in profile as he watched the fleeing road. She said, "Well. What can I do to make you marry me, Paul?"</t>
+    <t>Bordering the sheer drop of the precipice, the wooden railing looked like a child's toy. it followed the curving road in thread-like embrace, passing the car in a flimsy blur. then it flicked behind and away like a taut ribbon cut with scissors. then they passed the sign, the first sign, mills city 6 mi and elly thought, with musing and irrevocable astonishment, 'Now we are almost there. it is too late now'; looking at paul beside her, his hands on the wheel, his face in profile as he watched the fleeing road. she said, "Well. what can i do to make you marry me, paul?"</t>
   </si>
   <si>
     <t xml:space="preserve"> thinking 'There was a man plowing in that field, watching us when we came out of those woods with Paul carrying the motor-robe, and got back into the car,' </t>
